--- a/medicine/Mort/Cimetière_de_Ferncliff/Cimetière_de_Ferncliff.xlsx
+++ b/medicine/Mort/Cimetière_de_Ferncliff/Cimetière_de_Ferncliff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Ferncliff</t>
+          <t>Cimetière_de_Ferncliff</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière et mausolée de Ferncliff est situé au 280 Secor Road dans le hameau de Hartsdale, ville de Greenburgh, comté de Westchester, New York, États-Unis, à environ 25 miles (40 km) au nord de Manhattan. Il a été fondé en 1902 et est multiconfessionnel. Ferncliff possède trois mausolées communautaires comprenant des columbariums, un crématorium, une petite chapelle et un bureau principal situé à l'arrière du bâtiment principal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Ferncliff</t>
+          <t>Cimetière_de_Ferncliff</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,11 @@
           <t>Mausolées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Ferncliff possède trois mausolées communautaires qui offrent ce que le New York Times a décrit comme des « espaces funéraires somptueux ». Ce cimetière comprend des columbariums.
-Ferncliff
-Le mausolée de Ferncliff, alias « La cathédrale des souvenirs », est le plus ancien mausolée du cimetière, construit en 1928. Il a une architecture classique, mais les couloirs sont sombres et sans vitres, pour laisser passer la lumière naturelle. Ed Sullivan et Joan Crawford sont deux des inhumations les plus célèbres du mausolée principal.
-Sanctuaire des souvenirs
-Le sanctuaire des souvenirs est le deuxième mausolée de Ferncliff et a été construit en 1956. « Shrine of Memories » est une structure plus contemporaine que le mausolée de Ferncliff. Il dispose de nombreuses vitres pour laisser passer la lumière du jour, et le hall principal du bâtiment contient une peinture d'un portrait de Christophe Colomb. Basil Rathbone est l'un des inhumés les plus célèbres de « Shrine of Memories ».
-Rosewood
-Rosewood est le mausolée communautaire le plus récemment achevé de Ferncliff, ayant été construit en 1999. Joseph J. Mangan en a été l'architecte. La chanteuse Aaliyah et son père Michael Haughton ont un caveau privé à Rosewood. Cab Calloway est enterré avec sa femme Zulme « Nuffie ».
 </t>
         </is>
       </c>
@@ -530,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Ferncliff</t>
+          <t>Cimetière_de_Ferncliff</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pierres tombales</t>
+          <t>Mausolées</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le cimetière est également connu pour ses sépultures dans des sections situées devant les mausolées. Ferncliff est l'un des rares cimetières qui n'autorise pas les stèles dans ses parcelles extérieures. Toutes les pierres tombales extérieures sont des dalles funéraires. Cette caractéristique facilite l'entretien du terrain du cimetière. Cependant, plusieurs stèles ont été placées avant que cette politique ne soit instituée. Les sépultures les plus célèbres, comme celle de Malcolm X, se trouvent dans la parcelle Pinewood B.
+          <t>Ferncliff</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mausolée de Ferncliff, alias « La cathédrale des souvenirs », est le plus ancien mausolée du cimetière, construit en 1928. Il a une architecture classique, mais les couloirs sont sombres et sans vitres, pour laisser passer la lumière naturelle. Ed Sullivan et Joan Crawford sont deux des inhumations les plus célèbres du mausolée principal.
 </t>
         </is>
       </c>
@@ -561,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Ferncliff</t>
+          <t>Cimetière_de_Ferncliff</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +590,119 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mausolées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sanctuaire des souvenirs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sanctuaire des souvenirs est le deuxième mausolée de Ferncliff et a été construit en 1956. « Shrine of Memories » est une structure plus contemporaine que le mausolée de Ferncliff. Il dispose de nombreuses vitres pour laisser passer la lumière du jour, et le hall principal du bâtiment contient une peinture d'un portrait de Christophe Colomb. Basil Rathbone est l'un des inhumés les plus célèbres de « Shrine of Memories ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Ferncliff</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Ferncliff</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mausolées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rosewood</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosewood est le mausolée communautaire le plus récemment achevé de Ferncliff, ayant été construit en 1999. Joseph J. Mangan en a été l'architecte. La chanteuse Aaliyah et son père Michael Haughton ont un caveau privé à Rosewood. Cab Calloway est enterré avec sa femme Zulme « Nuffie ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Ferncliff</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Ferncliff</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pierres tombales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est également connu pour ses sépultures dans des sections situées devant les mausolées. Ferncliff est l'un des rares cimetières qui n'autorise pas les stèles dans ses parcelles extérieures. Toutes les pierres tombales extérieures sont des dalles funéraires. Cette caractéristique facilite l'entretien du terrain du cimetière. Cependant, plusieurs stèles ont été placées avant que cette politique ne soit instituée. Les sépultures les plus célèbres, comme celle de Malcolm X, se trouvent dans la parcelle Pinewood B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Ferncliff</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Ferncliff</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Aaliyah (1979–2001), chanteuse, actrice, mannequin, danseuse ; son père Michael Haughton (1951-2012), repose au-dessus d'elle ;
 Arthur W. Aleshire (1900–1940), membre du Congrès ;
@@ -695,8 +818,8 @@
 Toots Shor (1903–1977), restaurateur ;
 Otto Soglow (1900–1975), auteur et caricaturiste (The New Yorker) ;
 Zhang Youyi (1900–1988), première épouse du poète chinois Xu zhimo ;
-Soong Ai-ling (1888–1973), l'aînée des trois Sœurs Soong[1] ;
-Soong May-ling (1897–2003), première dame de Taïwan[2],[3] ;
+Soong Ai-ling (1888–1973), l'aînée des trois Sœurs Soong ;
+Soong May-ling (1897–2003), première dame de Taïwan, ;
 T. V. Soong (1894–1971), financier et diplomate; chairman de la National Bank of China et frère des sœurs Soong ;
 Alfred Steele (1901–1959), président du conseil d'administration de Pepsi, marié à Joan Crawford ;
 Preston Sturges (1898–1959), écrivain et réalisateur ;
@@ -715,35 +838,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_de_Ferncliff</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Ferncliff</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Ferncliff</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Crémations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le cimetière de Ferncliff possède le seul crématorium du comté de Westchester, à New York, et effectue environ 10 % des crémations dans l'État de New York. En raison des ordonnances locales, aucun crématorium supplémentaire ne peut être construit dans le comté de Westchester.
-Transfert des cendres
-Les personnalités dont les restes ont été incinérés à Ferncliff et dont les cendres ont été emportées ailleurs comprennent :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Ferncliff possède le seul crématorium du comté de Westchester, à New York, et effectue environ 10 % des crémations dans l'État de New York. En raison des ordonnances locales, aucun crématorium supplémentaire ne peut être construit dans le comté de Westchester.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Ferncliff</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Ferncliff</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Crémations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Transfert des cendres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les personnalités dont les restes ont été incinérés à Ferncliff et dont les cendres ont été emportées ailleurs comprennent :
 Diane Arbus (1923-1971), photographe artistique connue pour ses photographies de personnes marginalisées considérées comme laides ou surréalistes ;
 Alan Freed (1921–1965), DJ radio connu sous le nom du « Père du Rock &amp; Roll ». Ses cendres ont été transférées au Rock and Roll Hall of Fame en 2002 ;
 Jim Henson (1936–1990), créateur des Muppets. Ses cendres ont été dispersées dans son ranch de Santa Fe, au Nouveau-Mexique ;
